--- a/input/Расписание №2 Form.xlsx
+++ b/input/Расписание №2 Form.xlsx
@@ -8,31 +8,101 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DACE9E0-6A01-446F-8A2C-B2352512B308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C5A53C-252E-4C4B-ABE2-6E43B1074093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15288" yWindow="3960" windowWidth="11184" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="324" windowWidth="21108" windowHeight="15432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="form" sheetId="1" r:id="rId1"/>
+    <sheet name="report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>finish</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>Лекция</t>
+  </si>
+  <si>
+    <t>Дисциплина 1</t>
+  </si>
+  <si>
+    <t>Преподаватель 1</t>
+  </si>
+  <si>
+    <t>Семинар</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Корпус 1, Аудитория 1</t>
+  </si>
+  <si>
+    <t>Корпус 1, Аудитория 2</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Преподаватель не может одновременно находится в разных аудиториях</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Корпус 1, Аудитория 3</t>
+  </si>
+  <si>
+    <t>Семинар проводится  раньше лекции</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #</t>
+  </si>
+  <si>
+    <t>UndesirableEffect</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>auditorium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,14 +111,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -87,13 +183,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,76 +513,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.51736111111111105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.62152777777777779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.69097222222222221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB48A8E2-CC48-486C-B2AA-01136F65B70E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/Расписание №2 Form.xlsx
+++ b/input/Расписание №2 Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C5A53C-252E-4C4B-ABE2-6E43B1074093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D62BD-4FF7-44CB-9D41-50B999BACF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="324" windowWidth="21108" windowHeight="15432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7476" yWindow="3096" windowWidth="14820" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>8</v>
